--- a/papers/locale/fr/LC_MESSAGES/messages.xlsx
+++ b/papers/locale/fr/LC_MESSAGES/messages.xlsx
@@ -20,77 +20,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="221">
   <si>
     <t xml:space="preserve">Message id</t>
   </si>
   <si>
+    <t xml:space="preserve">Source comment</t>
+  </si>
+  <si>
     <t xml:space="preserve">django</t>
   </si>
   <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date limite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">état</t>
+  </si>
+  <si>
     <t xml:space="preserve">title</t>
   </si>
   <si>
+    <t xml:space="preserve">titre</t>
+  </si>
+  <si>
     <t xml:space="preserve">content</t>
   </si>
   <si>
-    <t xml:space="preserve">state</t>
+    <t xml:space="preserve">contenu</t>
   </si>
   <si>
     <t xml:space="preserve">reason</t>
   </si>
   <si>
+    <t xml:space="preserve">raison</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cannot create new amendments past a paper's deadline.</t>
   </si>
   <si>
+    <t xml:space="preserve">Impossible de créer de nouveaux amendements après la date limite d'un document.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comment</t>
   </si>
   <si>
+    <t xml:space="preserve">Commentaire</t>
+  </si>
+  <si>
     <t xml:space="preserve">Amendments to merge into final paper</t>
   </si>
   <si>
+    <t xml:space="preserve">Amendements à intégrer dans le document final</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select all amendments that you wish to merge into the final paper. Accepted amendments have already been selected.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sélectionnez tous les amendements que vous souhaitez fusionner dans le document final. Les amendements acceptés ont déjà été sélectionnés.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">user</t>
   </si>
   <si>
+    <t xml:space="preserve">utilisateur</t>
+  </si>
+  <si>
     <t xml:space="preserve">author</t>
   </si>
   <si>
+    <t xml:space="preserve">auteur</t>
+  </si>
+  <si>
     <t xml:space="preserve">authors</t>
   </si>
   <si>
+    <t xml:space="preserve">auteurs</t>
+  </si>
+  <si>
     <t xml:space="preserve">created at</t>
   </si>
   <si>
+    <t xml:space="preserve">créé à</t>
+  </si>
+  <si>
     <t xml:space="preserve">edited at</t>
   </si>
   <si>
+    <t xml:space="preserve">édité à</t>
+  </si>
+  <si>
     <t xml:space="preserve">deadline</t>
   </si>
   <si>
     <t xml:space="preserve">working title</t>
   </si>
   <si>
+    <t xml:space="preserve">titre provisoire</t>
+  </si>
+  <si>
     <t xml:space="preserve">paper</t>
   </si>
   <si>
+    <t xml:space="preserve">papier</t>
+  </si>
+  <si>
     <t xml:space="preserve">papers</t>
   </si>
   <si>
+    <t xml:space="preserve">papiers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Do the other translations need an update after this edit?</t>
   </si>
   <si>
+    <t xml:space="preserve">Les autres traductions doivent-elles être mises à jour après cette modification ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">language code</t>
   </si>
   <si>
+    <t xml:space="preserve">code de langue</t>
+  </si>
+  <si>
     <t xml:space="preserve">paper translation</t>
   </si>
   <si>
+    <t xml:space="preserve">traduction papier</t>
+  </si>
+  <si>
     <t xml:space="preserve">paper translations</t>
   </si>
   <si>
+    <t xml:space="preserve">traductions papier</t>
+  </si>
+  <si>
     <t xml:space="preserve">start index</t>
   </si>
   <si>
@@ -100,34 +182,86 @@
     <t xml:space="preserve">translations</t>
   </si>
   <si>
+    <t xml:space="preserve">traductions</t>
+  </si>
+  <si>
     <t xml:space="preserve">This amendment does not change the content of the paper, see the reason for more information.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Verdana"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cet a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Verdana"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">mendement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Verdana"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ne change pas le contenu du document, voir la raison pour plus d'informations.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">amendment</t>
   </si>
   <si>
+    <t xml:space="preserve">Amendement</t>
+  </si>
+  <si>
     <t xml:space="preserve">amendments</t>
   </si>
   <si>
+    <t xml:space="preserve">Amendements</t>
+  </si>
+  <si>
     <t xml:space="preserve">body</t>
   </si>
   <si>
     <t xml:space="preserve">likes</t>
   </si>
   <si>
+    <t xml:space="preserve">aime</t>
+  </si>
+  <si>
     <t xml:space="preserve">comment</t>
   </si>
   <si>
     <t xml:space="preserve">comments</t>
   </si>
   <si>
+    <t xml:space="preserve">Commentaires</t>
+  </si>
+  <si>
     <t xml:space="preserve">reject</t>
   </si>
   <si>
+    <t xml:space="preserve">refuser</t>
+  </si>
+  <si>
     <t xml:space="preserve">accept</t>
   </si>
   <si>
+    <t xml:space="preserve">accepter</t>
+  </si>
+  <si>
     <t xml:space="preserve">modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifié</t>
   </si>
   <si>
     <t xml:space="preserve">alternative</t>
@@ -147,88 +281,199 @@
     <t xml:space="preserve">Add translation</t>
   </si>
   <si>
-    <t xml:space="preserve">original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By &lt;strong&gt;%(name)s&lt;/strong&gt; at %(created)s</t>
+    <t xml:space="preserve">Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By &lt;strong&gt;%(name)s&lt;/strong&gt; on %(created)s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par &lt;strong&gt;%(name)s&lt;/strong&gt; le %(created)s</t>
   </si>
   <si>
     <t xml:space="preserve">Reason</t>
   </si>
   <si>
-    <t xml:space="preserve">translation</t>
+    <t xml:space="preserve">Raison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traduction</t>
   </si>
   <si>
     <t xml:space="preserve">Cancel</t>
   </si>
   <si>
+    <t xml:space="preserve">Annuler</t>
+  </si>
+  <si>
     <t xml:space="preserve">Submit</t>
   </si>
   <si>
-    <t xml:space="preserve">publish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edit</t>
+    <t xml:space="preserve">Envoyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amendment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By &lt;strong&gt;%(name)s&lt;/strong&gt; on %(created)s, for &lt;b&gt;%(group)s&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traductions</t>
   </si>
   <si>
     <t xml:space="preserve">Recommendation</t>
   </si>
   <si>
-    <t xml:space="preserve">edit recommendation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create recommendation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tags</t>
+    <t xml:space="preserve">Recommandation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créer une recommandation</t>
   </si>
   <si>
     <t xml:space="preserve">Sign this amendment</t>
   </si>
   <si>
+    <t xml:space="preserve">Signez cet amendement</t>
+  </si>
+  <si>
     <t xml:space="preserve">I revoke my signature.</t>
   </si>
   <si>
+    <t xml:space="preserve">Je révoque ma signature.</t>
+  </si>
+  <si>
     <t xml:space="preserve">I hereby sign this amendment.</t>
   </si>
   <si>
+    <t xml:space="preserve">Je signe cet amendement.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Don't support anymore</t>
   </si>
   <si>
+    <t xml:space="preserve">Ne supporte plus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Support this amendment</t>
   </si>
   <si>
+    <t xml:space="preserve">Soutenir cet amendement</t>
+  </si>
+  <si>
     <t xml:space="preserve">This amendment is supported by</t>
   </si>
   <si>
+    <t xml:space="preserve">Cet amendement est soutenu par</t>
+  </si>
+  <si>
     <t xml:space="preserve">members</t>
   </si>
   <si>
+    <t xml:space="preserve">membres</t>
+  </si>
+  <si>
     <t xml:space="preserve">Retract amendment</t>
   </si>
   <si>
+    <t xml:space="preserve">Retirer l'amendement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retour</t>
+  </si>
+  <si>
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">No Comments Yet...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unlike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">like</t>
+    <t xml:space="preserve">No comments yet...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucun commentaire pour le moment…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supprimer</t>
   </si>
   <si>
     <t xml:space="preserve">Leave a comment</t>
   </si>
   <si>
-    <t xml:space="preserve">submit</t>
+    <t xml:space="preserve">Laissez un commentaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes privées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No notes written...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de notes écrites…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a private note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a cloned amendment.</t>
   </si>
   <si>
     <t xml:space="preserve">Papers</t>
   </si>
   <si>
-    <t xml:space="preserve">Title</t>
+    <t xml:space="preserve">Papiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amendments</t>
   </si>
   <si>
     <t xml:space="preserve">Accepted</t>
@@ -237,25 +482,34 @@
     <t xml:space="preserve">Rejected</t>
   </si>
   <si>
-    <t xml:space="preserve">Back</t>
-  </si>
-  <si>
     <t xml:space="preserve">Save</t>
   </si>
   <si>
-    <t xml:space="preserve">%(name)s at %(created_at)s</t>
+    <t xml:space="preserve">%(name)s on %(created_at)s</t>
   </si>
   <si>
     <t xml:space="preserve">Digital Democracy</t>
   </si>
   <si>
-    <t xml:space="preserve">newsfeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sign in</t>
+    <t xml:space="preserve">Search...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to delete %(name)s?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirm deletion of %(name)s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This action cannot be undone!</t>
   </si>
   <si>
     <t xml:space="preserve">create amendment</t>
@@ -267,18 +521,18 @@
     <t xml:space="preserve">Create new paper</t>
   </si>
   <si>
-    <t xml:space="preserve">cancel</t>
-  </si>
-  <si>
     <t xml:space="preserve">%(title)s created! </t>
   </si>
   <si>
-    <t xml:space="preserve">all papers</t>
+    <t xml:space="preserve">All papers</t>
   </si>
   <si>
     <t xml:space="preserve">This translation needs an update.</t>
   </si>
   <si>
+    <t xml:space="preserve">This paper is closed for amendments.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Authors</t>
   </si>
   <si>
@@ -288,13 +542,25 @@
     <t xml:space="preserve">Create amendment</t>
   </si>
   <si>
+    <t xml:space="preserve">Update translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrational</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter results</t>
   </si>
   <si>
     <t xml:space="preserve">Merge amendments</t>
   </si>
   <si>
-    <t xml:space="preserve">Update translation</t>
+    <t xml:space="preserve">Downloads</t>
   </si>
   <si>
     <t xml:space="preserve">Download as PPTX</t>
@@ -303,22 +569,16 @@
     <t xml:space="preserve">Download as PDF</t>
   </si>
   <si>
-    <t xml:space="preserve">back</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amandments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created at</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deadline for amandments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latest amendment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latest comment</t>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deadline for amendments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Change</t>
   </si>
   <si>
     <t xml:space="preserve">Edit recommendation for</t>
@@ -327,13 +587,34 @@
     <t xml:space="preserve">Create recommendation for</t>
   </si>
   <si>
+    <t xml:space="preserve">Search Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing given to search for.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Select amendments</t>
   </si>
   <si>
     <t xml:space="preserve">Continue</t>
   </si>
   <si>
-    <t xml:space="preserve">update</t>
+    <t xml:space="preserve">Update</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -344,7 +625,7 @@
     <t xml:space="preserve">Incorrect credentials.</t>
   </si>
   <si>
-    <t xml:space="preserve">login</t>
+    <t xml:space="preserve">Login</t>
   </si>
   <si>
     <t xml:space="preserve">Passwort vergessen?</t>
@@ -374,46 +655,61 @@
     <t xml:space="preserve">Schreiben Sie Ihr neues Passwort in beide Felder um es zu setzen.</t>
   </si>
   <si>
-    <t xml:space="preserve">E-Mail zum zurücksenden des Passworts abgeschickt</t>
+    <t xml:space="preserve">E-Mail zum Zurücksenden des Passworts abgeschickt.</t>
   </si>
   <si>
     <t xml:space="preserve">Sie sollten eine E-Mail bekommen haben mit der Sie ihr Passwort zurücksetzen können.</t>
   </si>
   <si>
-    <t xml:space="preserve">Falls sie die E-Mail nicht finden, schauen Sie in ihren Spam-Ordner nach.</t>
+    <t xml:space="preserve">Falls Sie die E-Mail nicht finden, schauen Sie in Ihren Spam-Ordner nach.</t>
   </si>
   <si>
     <t xml:space="preserve">Geben Sie ihr Passwort und wir schicken Ihnen eine Email um ihr Passwort zurückzusetzen</t>
   </si>
   <si>
-    <t xml:space="preserve">Email senden</t>
+    <t xml:space="preserve">E-mail senden</t>
   </si>
   <si>
     <t xml:space="preserve">Contributions by %(username)s</t>
   </si>
   <si>
-    <t xml:space="preserve">deadline for amendments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amendments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
+    <t xml:space="preserve">Created at</t>
   </si>
   <si>
     <t xml:space="preserve"># Supporters</t>
   </si>
   <si>
-    <t xml:space="preserve">Amendment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Likes</t>
   </si>
   <si>
+    <t xml:space="preserve">Note</t>
+  </si>
+  <si>
     <t xml:space="preserve">New digital-democracy account</t>
   </si>
   <si>
+    <t xml:space="preserve">Cannot delete only translation of this paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully deleted translation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are not allowed to delete this comment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully deleted comment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successfully deleted paper.</t>
+  </si>
+  <si>
     <t xml:space="preserve">You are not allowed to edit this paper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are not allowed to edit this amendment.</t>
   </si>
   <si>
     <t xml:space="preserve">{imported_users} were imported!</t>
@@ -426,7 +722,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -447,6 +743,24 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Verdana"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -492,12 +806,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -518,670 +848,1279 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C80" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+      <selection pane="bottomRight" activeCell="A90" activeCellId="0" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="80"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="80"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B2" s="0"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0"/>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>19</v>
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>35</v>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>36</v>
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
+      <c r="A37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>38</v>
+      <c r="A38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>39</v>
-      </c>
+      <c r="A39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>40</v>
-      </c>
+      <c r="A40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>41</v>
-      </c>
+      <c r="A41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>42</v>
-      </c>
+      <c r="A42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>43</v>
-      </c>
+      <c r="A43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>44</v>
+      <c r="A44" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>45</v>
+      <c r="A45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>46</v>
+      <c r="A46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>47</v>
+      <c r="A47" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>48</v>
+      <c r="A48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>49</v>
+      <c r="A49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>50</v>
+      <c r="A50" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>52</v>
+      <c r="A51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>53</v>
+      <c r="A53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>54</v>
-      </c>
+      <c r="A54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>55</v>
+      <c r="A55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>56</v>
+      <c r="A56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>61</v>
+      <c r="A57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>62</v>
+      <c r="A62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>63</v>
+      <c r="A63" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A64" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>71</v>
+      <c r="A71" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>72</v>
-      </c>
+      <c r="A72" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>74</v>
+      <c r="A73" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>76</v>
+      <c r="A75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>77</v>
+      <c r="A77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>78</v>
-      </c>
+      <c r="A78" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>80</v>
+      <c r="A79" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="C80" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>81</v>
-      </c>
+      <c r="A81" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>82</v>
-      </c>
+      <c r="A82" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>83</v>
-      </c>
+      <c r="A83" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>84</v>
-      </c>
+      <c r="A84" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>85</v>
-      </c>
+      <c r="A85" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>86</v>
-      </c>
+      <c r="A86" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>87</v>
-      </c>
+      <c r="A87" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>88</v>
-      </c>
+      <c r="A88" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>89</v>
-      </c>
+      <c r="A89" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>90</v>
-      </c>
+      <c r="A90" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="4"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>91</v>
-      </c>
+      <c r="A91" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>92</v>
-      </c>
+      <c r="A92" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>93</v>
-      </c>
+      <c r="A93" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>94</v>
-      </c>
+      <c r="A94" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>95</v>
-      </c>
+      <c r="A95" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>96</v>
-      </c>
+      <c r="A96" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="A97" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>98</v>
-      </c>
+      <c r="A98" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>99</v>
-      </c>
+      <c r="A99" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>100</v>
-      </c>
+      <c r="A100" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>101</v>
-      </c>
+      <c r="A101" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>102</v>
-      </c>
+      <c r="A102" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" s="4"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>103</v>
-      </c>
+      <c r="A103" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" s="4"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A104" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>105</v>
-      </c>
+      <c r="A105" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>106</v>
-      </c>
+      <c r="A106" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>107</v>
-      </c>
+      <c r="A107" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>108</v>
-      </c>
+      <c r="A108" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" s="4"/>
+      <c r="C108" s="3"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>109</v>
-      </c>
+      <c r="A109" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" s="4"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>110</v>
-      </c>
+      <c r="A110" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>111</v>
-      </c>
+      <c r="A111" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>112</v>
-      </c>
+      <c r="A112" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>113</v>
-      </c>
+      <c r="A113" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>114</v>
-      </c>
+      <c r="A114" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="3"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>115</v>
-      </c>
+      <c r="A115" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>116</v>
-      </c>
+      <c r="A116" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116" s="4"/>
+      <c r="C116" s="3"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>117</v>
-      </c>
+      <c r="A117" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" s="4"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>118</v>
-      </c>
+      <c r="A118" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="3"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>119</v>
-      </c>
+      <c r="A119" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>120</v>
-      </c>
+      <c r="A120" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>121</v>
-      </c>
+      <c r="A121" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>122</v>
-      </c>
+      <c r="A122" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" s="4"/>
+      <c r="C122" s="3"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>123</v>
-      </c>
+      <c r="A123" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B123" s="4"/>
+      <c r="C123" s="3"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>124</v>
-      </c>
+      <c r="A124" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>125</v>
-      </c>
+      <c r="A125" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="3"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>126</v>
-      </c>
+      <c r="A126" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B126" s="4"/>
+      <c r="C126" s="3"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>127</v>
-      </c>
+      <c r="A127" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>128</v>
-      </c>
+      <c r="A128" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>129</v>
-      </c>
+      <c r="A129" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>130</v>
-      </c>
+      <c r="A130" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B130" s="4"/>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" s="4"/>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B134" s="4"/>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B136" s="4"/>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138" s="4"/>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" s="4"/>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B141" s="4"/>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B142" s="4"/>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143" s="4"/>
+      <c r="C143" s="3"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B144" s="4"/>
+      <c r="C144" s="3"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B145" s="4"/>
+      <c r="C145" s="3"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B146" s="4"/>
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B147" s="4"/>
+      <c r="C147" s="3"/>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B148" s="4"/>
+      <c r="C148" s="3"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B149" s="4"/>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B150" s="4"/>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B151" s="4"/>
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B152" s="4"/>
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B153" s="4"/>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B154" s="4"/>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B155" s="4"/>
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B156" s="4"/>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B157" s="4"/>
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B158" s="4"/>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B159" s="4"/>
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B160" s="4"/>
+      <c r="C160" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
